--- a/data_and_analysis/Burn Time.xlsx
+++ b/data_and_analysis/Burn Time.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DarkMatter_Jr\data_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C973E980-AF78-417A-B195-5A56F684A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747E168-79A4-4FD7-BEAA-D807654687FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Various Pressure" sheetId="1" r:id="rId1"/>
+    <sheet name="Various Efficiency" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>Burn Time (s)</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Chamber Pressure</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -84,10 +88,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,13 +189,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Various Pressure'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -208,7 +213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$84</c:f>
+              <c:f>'Various Pressure'!$A$4:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -456,11 +461,12 @@
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$84</c:f>
+              <c:f>'Various Pressure'!$B$4:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -708,10 +714,11 @@
                   <c:v>3676.5167999999999</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-E131-4618-9C17-98D39F5E3BA6}"/>
             </c:ext>
@@ -737,7 +744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$84</c:f>
+              <c:f>'Various Pressure'!$A$4:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -989,7 +996,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$84</c:f>
+              <c:f>'Various Pressure'!$D$4:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1251,13 +1258,14 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>'Various Pressure'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1274,7 +1282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$84</c:f>
+              <c:f>'Various Pressure'!$A$4:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1522,11 +1530,12 @@
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$84</c:f>
+              <c:f>'Various Pressure'!$F$4:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1774,10 +1783,11 @@
                   <c:v>3672.2579999999998</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-E131-4618-9C17-98D39F5E3BA6}"/>
             </c:ext>
@@ -1793,6 +1803,7 @@
         </c:dLbls>
         <c:axId val="1692204208"/>
         <c:axId val="1692190896"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1692204208"/>
@@ -1903,6 +1914,7 @@
         <c:axId val="1692190896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2093,7 +2105,3716 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>OF=4.5; Pcc=400; Prop_mass=9.333kg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Various Efficiency'!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$A$4:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$B$4:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2071.0859999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2064.181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2057.2177999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2050.2341999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2043.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2036.1285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2029.0288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021.8869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014.6913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007.4709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000.1980000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1992.8992000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985.5498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1978.1587999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1970.748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1963.2816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1955.7954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1948.2539999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1940.6753000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1933.0786000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1925.4266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1917.7447999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1910.0174999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1902.2798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1894.481</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1886.6539</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1878.8067000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1870.9096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1862.9736</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1855.0026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1847.0201999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1838.9792</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1830.9105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1822.796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1814.6787999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1806.4957999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1798.2856999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1790.0374999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1781.7782999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1773.4621999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1765.1112000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1756.7318</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1748.3300999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1739.8833</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1731.3915999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1722.8742999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1714.3458000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1705.7606000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1697.1396</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1688.5127</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1679.8249000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1671.1022</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1662.3525</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1653.5871999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1644.7714000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1635.9128000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1627.0641000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1618.1395</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1609.2243000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1600.2337</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1591.2165</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1582.1946</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1573.1105</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1563.9916000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1554.8787</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1545.6922</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1536.5120999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1527.2587000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1518.0112999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1508.6929</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1499.3832</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1489.9960000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1480.6192000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1471.1632</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1461.7211</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1452.1993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1442.6905999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1433.1445000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1423.5206000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1413.9095</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1404.2714000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-658E-45DC-9747-5C3D07F9E7AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Various Efficiency'!$F$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$A$4:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$F$4:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>3589.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3584.5070000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3579.3598999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3574.1352000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3568.8024999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3563.4454000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3557.9764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3552.4475000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3546.8521999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3541.1615000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3535.4351000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3529.6178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3523.7372</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3517.7898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3511.7636000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3505.6898999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3499.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3493.3229999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3487.0164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3480.6695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3474.2655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3467.7973000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3461.2586999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3454.6453999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3447.9949000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3441.2732999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3434.5070000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3427.6457999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3420.7474999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3413.8004999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3406.7579000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3399.6837999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3392.5607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3385.3409000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3378.0927999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3370.7961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3363.4056999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3355.9877999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3348.5221000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3340.9614000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3333.3784999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3325.7456000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3318.0194000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3310.2707999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3302.4708999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3294.5816</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3286.6714000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3278.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3270.6536000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3262.5803999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3254.4146999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3246.2366000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3238.0075000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3229.6756</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3221.3397</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3212.9063999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3204.4612000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3195.9656</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3187.3748000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3178.7746999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3170.0729999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3161.3726999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3152.6172000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3143.7584000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3134.9014000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3125.9935999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3116.9778000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3107.9666999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3098.8496</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3089.7334999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3080.5706</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3071.2939000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3062.0250999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3052.7069999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3043.2764999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3033.8512999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3024.3152</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3014.7950999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3005.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2995.5191</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2985.8436000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-658E-45DC-9747-5C3D07F9E7AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Various Efficiency'!$J$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$A$4:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$J$4:$J$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>5111.5567000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5109.2669999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5106.8959999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5104.5842000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5102.2314999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5099.8525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5097.5325999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5095.1475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5092.7898999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5090.3648000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5087.9376000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5085.4908999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5083.0021999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5080.4997000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5077.9573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5075.3531999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5072.7307000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5070.0504000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5067.3611000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5064.5596999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5061.7111000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5058.8027000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5055.8707000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5052.8041000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5049.6876000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5046.4494000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5043.1319000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5039.6926999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5036.2422999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5032.6088</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5028.8366999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5024.9898999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5020.9858000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5016.8620000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5012.5762999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5008.1844000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5003.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4998.8624</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4993.9022999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4988.8720999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4983.5595999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4978.1760999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4972.8010000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4967.3319000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4961.8198000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4956.3083999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4950.7097000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4945.0690000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4939.4279999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4933.6974</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4927.9236000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4922.1041999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4916.2929999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4910.3868000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4904.4368999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4898.4975999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4892.4593999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4886.3796000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4880.2628999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4874.1517000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4867.9439000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4861.6858000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4855.4552999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4849.1126999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4842.7313999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4836.3064999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4829.8981999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4823.3854000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4816.8266000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4810.2259999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4803.6481999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4796.9593000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4790.2290000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4783.4075000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4776.5785999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4769.5798999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4762.491</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4755.32</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4748.1450000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4740.8071</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4733.3807999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-658E-45DC-9747-5C3D07F9E7AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Various Efficiency'!$L$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$A$4:$A$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5000000000000098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.9000000000000101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.5000000000000107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.6000000000000103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Various Efficiency'!$L$4:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>5930.8807999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5926.5432000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5922.1598999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5917.8298000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5913.4889000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5909.2165999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5904.9695000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5900.7187000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5896.5448999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5892.3536999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5888.3062</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5884.2476999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5880.2416000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5876.3401999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5872.4117999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5868.5864000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5864.7479000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5861.0698000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5857.3422</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5853.6702999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5850.1315000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5846.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5843.0947999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5839.6244999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5836.2120999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5832.8897999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5829.5225</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5826.2250999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5823.0240999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5819.7731999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5816.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5813.4233999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5810.2691000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5807.1133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5803.9866000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5800.9197999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5797.8225000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5794.7116999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5791.6045000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5788.5514000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5785.4596000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5782.3375999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5779.2070000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5776.1121999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5772.9422999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5769.7503999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5766.5371999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5763.3343999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5760.0492999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5756.7362999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5753.3818000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5749.9881999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5746.5627000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5743.1315000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5739.5888999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5735.9674000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5732.2861999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5728.5375999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5724.8098</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5720.9159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5716.9157999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5712.8275000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5708.6592000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5704.3962000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5700.0950000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5695.6075000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5691.0128999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5686.2793000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5681.4188999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5676.4098000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5671.2676000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5666.1043</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5660.6823999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5655.0645000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5649.2736999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5643.3468999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5637.2314999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5630.9160000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5624.5967000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5618.1529</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5611.6571000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-658E-45DC-9747-5C3D07F9E7AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1518031775"/>
+        <c:axId val="1518032607"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$D$2:$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$A$4:$A$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="81"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.5999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.9000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5.7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5.9</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>6.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>6.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>6.9</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>7.1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7.5000000000000098</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7.9000000000000101</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>8.0000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>8.2000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>8.3000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>8.4000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>8.5000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8.6000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>8.7000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>8.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>8.9000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>9.0000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>9.1000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>9.2000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>9.3000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9.4000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>9.5000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>9.6000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>9.7000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>9.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9.9000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$D$4:$D$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="81"/>
+                      <c:pt idx="0">
+                        <c:v>2819.4234000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2813.0353</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2806.6124</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2800.1149</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2793.5619999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2786.9760999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2780.3155999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2773.5983000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2766.8391000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2760.0412999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2753.1776</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2746.2582000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2739.2912000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2732.2745</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2725.2089999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2718.0978</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2710.9362000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2703.7266</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2696.4670999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2689.1606000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2681.8285999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2674.4068000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2666.9584</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2659.4614999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2651.9195</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2644.3258000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2636.6880000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2629.0059999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2621.2772</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2613.5048999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2605.6821</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2597.817</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2589.9054999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2581.9484000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2573.9517000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2565.9063999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2557.7914000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2549.6617000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2541.4811</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2533.2601</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2524.9951000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2516.6864999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2508.3382000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2499.9398999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2491.5007999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2482.9872</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2474.4557</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2465.8847000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2457.2719999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2448.6154999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2439.9198999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2431.1732999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2422.3892000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2413.5246999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2404.6489999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2395.7361999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2386.7786000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2377.7799</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2368.7435</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2359.6565999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2350.5335</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2341.366</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2332.1549</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2322.8604999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2313.5641999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2304.2258999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2294.8519999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2285.4249</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2275.9639999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2266.4587999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2256.9101000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2247.3236999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2237.6871999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2228.0142999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2218.2972</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2208.5351000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2198.7370999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2188.8872999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2179.0007999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2169.0691000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2159.0938999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-658E-45DC-9747-5C3D07F9E7AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$H$2:$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$A$4:$A$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="81"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4.5999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4.7</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.9000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>5.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>5.3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5.7</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5.9</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>6.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>6.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>6.9</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>7.1</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>7.5000000000000098</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7.9000000000000101</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>8.0000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>8.2000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>8.3000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>8.4000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>8.5000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8.6000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>8.7000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>8.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>8.9000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>9.0000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>9.1000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>9.2000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>9.3000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>9.4000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>9.5000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>9.6000000000000103</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>9.7000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>9.8000000000000096</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9.9000000000000092</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Various Efficiency'!$H$4:$H$84</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="81"/>
+                      <c:pt idx="0">
+                        <c:v>4362.4112999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4358.6040000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4354.4710999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4350.3243000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4345.9504999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4341.5357000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4337.076</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4332.5474000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4327.9736000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4323.3769000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4318.7079999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4314.0339000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4309.2902000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4304.4758000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4299.6611999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4294.7974000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4289.8563999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4284.9143999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4279.9197999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4274.8563000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4269.7835999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4264.6688000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4259.4749000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4254.2808000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4249.0317999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>4243.7214999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>4238.4025000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>4233.0095000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4227.6061</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4222.1341000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4216.6544000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4211.0951999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4205.5415999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4199.9170999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4194.2385000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4188.4427999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4182.6140999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4176.6549999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4170.6390000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4164.5255999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4158.3620000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>4152.0810000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4145.7605999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>4139.3297000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4132.8561</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4126.2687999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4119.6571999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>4112.9243999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>4106.1139000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>4099.2844999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>4092.3321999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>4085.3546999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>4078.2588999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>4071.1484999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>4063.9168</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>4056.6134000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>4049.2959999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>4041.8551000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>4034.4032999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>4026.8276999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>4019.2480999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>4011.5383999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>4003.7691</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>3995.9879999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>3988.0875999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>3980.1761000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3972.1435000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>3964.0473999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>3955.9459000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>3947.7206000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3939.4933999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3931.1405</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3922.7211000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3914.3045999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3905.7649000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3897.2240999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3888.5560999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3879.8948999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3871.0990999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3862.2399</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>3853.3982999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-658E-45DC-9747-5C3D07F9E7AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1518031775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Burn Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518032607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1518032607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Apogee (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1518031775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2649,20 +6370,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2670,6 +6907,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDD37EE-6D7E-CC36-46BA-CE9DC76F1754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D312A820-0B1B-2919-33E5-F50F5730ADF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07EAD01-E0CD-4E4E-85C8-5902CD2E2223}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3007,38 +7285,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
         <v>300</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>350</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>400</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
         <v>450</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -5426,4 +9704,3434 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A442CC-AFCB-402B-8B27-D041FFD78507}">
+  <dimension ref="A1:M84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2071.0859999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.6159</v>
+      </c>
+      <c r="D4">
+        <v>2819.4234000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="F4">
+        <v>3589.55</v>
+      </c>
+      <c r="G4">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="H4">
+        <v>4362.4112999999998</v>
+      </c>
+      <c r="I4">
+        <v>1.0122</v>
+      </c>
+      <c r="J4">
+        <v>5111.5567000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.1417999999999999</v>
+      </c>
+      <c r="L4">
+        <v>5930.8807999999999</v>
+      </c>
+      <c r="M4">
+        <v>1.2714000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.1</v>
+      </c>
+      <c r="B5">
+        <v>2064.181</v>
+      </c>
+      <c r="C5">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="D5">
+        <v>2813.0353</v>
+      </c>
+      <c r="E5">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="F5">
+        <v>3584.5070000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="H5">
+        <v>4358.6040000000003</v>
+      </c>
+      <c r="I5">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="J5">
+        <v>5109.2669999999998</v>
+      </c>
+      <c r="K5">
+        <v>1.1364000000000001</v>
+      </c>
+      <c r="L5">
+        <v>5926.5432000000001</v>
+      </c>
+      <c r="M5">
+        <v>1.2656000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6">
+        <v>2057.2177999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.60970000000000002</v>
+      </c>
+      <c r="D6">
+        <v>2806.6124</v>
+      </c>
+      <c r="E6">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="F6">
+        <v>3579.3598999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="H6">
+        <v>4354.4710999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.0056</v>
+      </c>
+      <c r="J6">
+        <v>5106.8959999999997</v>
+      </c>
+      <c r="K6">
+        <v>1.1347</v>
+      </c>
+      <c r="L6">
+        <v>5922.1598999999997</v>
+      </c>
+      <c r="M6">
+        <v>1.2637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B7">
+        <v>2050.2341999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="D7">
+        <v>2800.1149</v>
+      </c>
+      <c r="E7">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="F7">
+        <v>3574.1352000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.87</v>
+      </c>
+      <c r="H7">
+        <v>4350.3243000000002</v>
+      </c>
+      <c r="I7">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="J7">
+        <v>5104.5842000000002</v>
+      </c>
+      <c r="K7">
+        <v>1.1294</v>
+      </c>
+      <c r="L7">
+        <v>5917.8298000000004</v>
+      </c>
+      <c r="M7">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.4</v>
+      </c>
+      <c r="B8">
+        <v>2043.21</v>
+      </c>
+      <c r="C8">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="D8">
+        <v>2793.5619999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="F8">
+        <v>3568.8024999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="H8">
+        <v>4345.9504999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="J8">
+        <v>5102.2314999999999</v>
+      </c>
+      <c r="K8">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="L8">
+        <v>5913.4889000000003</v>
+      </c>
+      <c r="M8">
+        <v>1.2531000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.5</v>
+      </c>
+      <c r="B9">
+        <v>2036.1285</v>
+      </c>
+      <c r="C9">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="D9">
+        <v>2786.9760999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F9">
+        <v>3563.4454000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="H9">
+        <v>4341.5357000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="J9">
+        <v>5099.8525</v>
+      </c>
+      <c r="K9">
+        <v>1.1232</v>
+      </c>
+      <c r="L9">
+        <v>5909.2165999999997</v>
+      </c>
+      <c r="M9">
+        <v>1.2512000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.6</v>
+      </c>
+      <c r="B10">
+        <v>2029.0288</v>
+      </c>
+      <c r="C10">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="D10">
+        <v>2780.3155999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="F10">
+        <v>3557.9764</v>
+      </c>
+      <c r="G10">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="H10">
+        <v>4337.076</v>
+      </c>
+      <c r="I10">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="J10">
+        <v>5097.5325999999995</v>
+      </c>
+      <c r="K10">
+        <v>1.1178999999999999</v>
+      </c>
+      <c r="L10">
+        <v>5904.9695000000002</v>
+      </c>
+      <c r="M10">
+        <v>1.2456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.7</v>
+      </c>
+      <c r="B11">
+        <v>2021.8869</v>
+      </c>
+      <c r="C11">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="D11">
+        <v>2773.5983000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="F11">
+        <v>3552.4475000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="H11">
+        <v>4332.5474000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="J11">
+        <v>5095.1475</v>
+      </c>
+      <c r="K11">
+        <v>1.1127</v>
+      </c>
+      <c r="L11">
+        <v>5900.7187000000004</v>
+      </c>
+      <c r="M11">
+        <v>1.2407999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.8</v>
+      </c>
+      <c r="B12">
+        <v>2014.6913</v>
+      </c>
+      <c r="C12">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="D12">
+        <v>2766.8391000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="F12">
+        <v>3546.8521999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H12">
+        <v>4327.9736000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="J12">
+        <v>5092.7898999999998</v>
+      </c>
+      <c r="K12">
+        <v>1.1111</v>
+      </c>
+      <c r="L12">
+        <v>5896.5448999999999</v>
+      </c>
+      <c r="M12">
+        <v>1.2388999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.9</v>
+      </c>
+      <c r="B13">
+        <v>2007.4709</v>
+      </c>
+      <c r="C13">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2760.0412999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F13">
+        <v>3541.1615000000002</v>
+      </c>
+      <c r="G13">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="H13">
+        <v>4323.3769000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.9788</v>
+      </c>
+      <c r="J13">
+        <v>5090.3648000000003</v>
+      </c>
+      <c r="K13">
+        <v>1.1066</v>
+      </c>
+      <c r="L13">
+        <v>5892.3536999999997</v>
+      </c>
+      <c r="M13">
+        <v>1.2341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2000.1980000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.5847</v>
+      </c>
+      <c r="D14">
+        <v>2753.1776</v>
+      </c>
+      <c r="E14">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F14">
+        <v>3535.4351000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="H14">
+        <v>4318.7079999999996</v>
+      </c>
+      <c r="I14">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="J14">
+        <v>5087.9376000000002</v>
+      </c>
+      <c r="K14">
+        <v>1.1014999999999999</v>
+      </c>
+      <c r="L14">
+        <v>5888.3062</v>
+      </c>
+      <c r="M14">
+        <v>1.2285999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.1</v>
+      </c>
+      <c r="B15">
+        <v>1992.8992000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="D15">
+        <v>2746.2582000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="F15">
+        <v>3529.6178</v>
+      </c>
+      <c r="G15">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="H15">
+        <v>4314.0339000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="J15">
+        <v>5085.4908999999998</v>
+      </c>
+      <c r="K15">
+        <v>1.0999000000000001</v>
+      </c>
+      <c r="L15">
+        <v>5884.2476999999999</v>
+      </c>
+      <c r="M15">
+        <v>1.2267999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.2</v>
+      </c>
+      <c r="B16">
+        <v>1985.5498</v>
+      </c>
+      <c r="C16">
+        <v>0.5786</v>
+      </c>
+      <c r="D16">
+        <v>2739.2912000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="F16">
+        <v>3523.7372</v>
+      </c>
+      <c r="G16">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="H16">
+        <v>4309.2902000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.9677</v>
+      </c>
+      <c r="J16">
+        <v>5083.0021999999999</v>
+      </c>
+      <c r="K16">
+        <v>1.0954999999999999</v>
+      </c>
+      <c r="L16">
+        <v>5880.2416000000003</v>
+      </c>
+      <c r="M16">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3.3</v>
+      </c>
+      <c r="B17">
+        <v>1978.1587999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="D17">
+        <v>2732.2745</v>
+      </c>
+      <c r="E17">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="F17">
+        <v>3517.7898</v>
+      </c>
+      <c r="G17">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="H17">
+        <v>4304.4758000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="J17">
+        <v>5080.4997000000003</v>
+      </c>
+      <c r="K17">
+        <v>1.0904</v>
+      </c>
+      <c r="L17">
+        <v>5876.3401999999996</v>
+      </c>
+      <c r="M17">
+        <v>1.2164999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.4</v>
+      </c>
+      <c r="B18">
+        <v>1970.748</v>
+      </c>
+      <c r="C18">
+        <v>0.5726</v>
+      </c>
+      <c r="D18">
+        <v>2725.2089999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="F18">
+        <v>3511.7636000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="H18">
+        <v>4299.6611999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J18">
+        <v>5077.9573</v>
+      </c>
+      <c r="K18">
+        <v>1.0889</v>
+      </c>
+      <c r="L18">
+        <v>5872.4117999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.2156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3.5</v>
+      </c>
+      <c r="B19">
+        <v>1963.2816</v>
+      </c>
+      <c r="C19">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="D19">
+        <v>2718.0978</v>
+      </c>
+      <c r="E19">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="F19">
+        <v>3505.6898999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="H19">
+        <v>4294.7974000000004</v>
+      </c>
+      <c r="I19">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="J19">
+        <v>5075.3531999999996</v>
+      </c>
+      <c r="K19">
+        <v>1.0846</v>
+      </c>
+      <c r="L19">
+        <v>5868.5864000000001</v>
+      </c>
+      <c r="M19">
+        <v>1.2101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.6</v>
+      </c>
+      <c r="B20">
+        <v>1955.7954</v>
+      </c>
+      <c r="C20">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="D20">
+        <v>2710.9362000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="F20">
+        <v>3499.5329999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="H20">
+        <v>4289.8563999999997</v>
+      </c>
+      <c r="I20">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="J20">
+        <v>5072.7307000000001</v>
+      </c>
+      <c r="K20">
+        <v>1.0798000000000001</v>
+      </c>
+      <c r="L20">
+        <v>5864.7479000000003</v>
+      </c>
+      <c r="M20">
+        <v>1.2054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.7</v>
+      </c>
+      <c r="B21">
+        <v>1948.2539999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="D21">
+        <v>2703.7266</v>
+      </c>
+      <c r="E21">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="F21">
+        <v>3493.3229999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="H21">
+        <v>4284.9143999999997</v>
+      </c>
+      <c r="I21">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="J21">
+        <v>5070.0504000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.0788</v>
+      </c>
+      <c r="L21">
+        <v>5861.0698000000002</v>
+      </c>
+      <c r="M21">
+        <v>1.2038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.8</v>
+      </c>
+      <c r="B22">
+        <v>1940.6753000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="D22">
+        <v>2696.4670999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="F22">
+        <v>3487.0164</v>
+      </c>
+      <c r="G22">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H22">
+        <v>4279.9197999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="J22">
+        <v>5067.3611000000001</v>
+      </c>
+      <c r="K22">
+        <v>1.0738000000000001</v>
+      </c>
+      <c r="L22">
+        <v>5857.3422</v>
+      </c>
+      <c r="M22">
+        <v>1.1991000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3.9</v>
+      </c>
+      <c r="B23">
+        <v>1933.0786000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="D23">
+        <v>2689.1606000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="F23">
+        <v>3480.6695</v>
+      </c>
+      <c r="G23">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="H23">
+        <v>4274.8563000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="J23">
+        <v>5064.5596999999998</v>
+      </c>
+      <c r="K23">
+        <v>1.0694999999999999</v>
+      </c>
+      <c r="L23">
+        <v>5853.6702999999998</v>
+      </c>
+      <c r="M23">
+        <v>1.1944999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1925.4266</v>
+      </c>
+      <c r="C24">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="D24">
+        <v>2681.8285999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="F24">
+        <v>3474.2655</v>
+      </c>
+      <c r="G24">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="H24">
+        <v>4269.7835999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.9415</v>
+      </c>
+      <c r="J24">
+        <v>5061.7111000000004</v>
+      </c>
+      <c r="K24">
+        <v>1.0681</v>
+      </c>
+      <c r="L24">
+        <v>5850.1315000000004</v>
+      </c>
+      <c r="M24">
+        <v>1.1896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>1917.7447999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D25">
+        <v>2674.4068000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="F25">
+        <v>3467.7973000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="H25">
+        <v>4264.6688000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="J25">
+        <v>5058.8027000000002</v>
+      </c>
+      <c r="K25">
+        <v>1.0638000000000001</v>
+      </c>
+      <c r="L25">
+        <v>5846.58</v>
+      </c>
+      <c r="M25">
+        <v>1.1882999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.2</v>
+      </c>
+      <c r="B26">
+        <v>1910.0174999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="D26">
+        <v>2666.9584</v>
+      </c>
+      <c r="E26">
+        <v>0.67989999999999995</v>
+      </c>
+      <c r="F26">
+        <v>3461.2586999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.80910000000000004</v>
+      </c>
+      <c r="H26">
+        <v>4259.4749000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="J26">
+        <v>5055.8707000000004</v>
+      </c>
+      <c r="K26">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="L26">
+        <v>5843.0947999999999</v>
+      </c>
+      <c r="M26">
+        <v>1.1830000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4.3</v>
+      </c>
+      <c r="B27">
+        <v>1902.2798</v>
+      </c>
+      <c r="C27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D27">
+        <v>2659.4614999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F27">
+        <v>3454.6453999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.8054</v>
+      </c>
+      <c r="H27">
+        <v>4254.2808000000005</v>
+      </c>
+      <c r="I27">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="J27">
+        <v>5052.8041000000003</v>
+      </c>
+      <c r="K27">
+        <v>1.0553999999999999</v>
+      </c>
+      <c r="L27">
+        <v>5839.6244999999999</v>
+      </c>
+      <c r="M27">
+        <v>1.1785000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B28">
+        <v>1894.481</v>
+      </c>
+      <c r="C28">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="D28">
+        <v>2651.9195</v>
+      </c>
+      <c r="E28">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="F28">
+        <v>3447.9949000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="H28">
+        <v>4249.0317999999997</v>
+      </c>
+      <c r="I28">
+        <v>0.9274</v>
+      </c>
+      <c r="J28">
+        <v>5049.6876000000002</v>
+      </c>
+      <c r="K28">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="L28">
+        <v>5836.2120999999997</v>
+      </c>
+      <c r="M28">
+        <v>1.1746000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4.5</v>
+      </c>
+      <c r="B29">
+        <v>1886.6539</v>
+      </c>
+      <c r="C29">
+        <v>0.54</v>
+      </c>
+      <c r="D29">
+        <v>2644.3258000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="F29">
+        <v>3441.2732999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="H29">
+        <v>4243.7214999999997</v>
+      </c>
+      <c r="I29">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="J29">
+        <v>5046.4494000000004</v>
+      </c>
+      <c r="K29">
+        <v>1.0491999999999999</v>
+      </c>
+      <c r="L29">
+        <v>5832.8897999999999</v>
+      </c>
+      <c r="M29">
+        <v>1.1724000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B30">
+        <v>1878.8067000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.5373</v>
+      </c>
+      <c r="D30">
+        <v>2636.6880000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="F30">
+        <v>3434.5070000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.7954</v>
+      </c>
+      <c r="H30">
+        <v>4238.4025000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="J30">
+        <v>5043.1319000000003</v>
+      </c>
+      <c r="K30">
+        <v>1.0451999999999999</v>
+      </c>
+      <c r="L30">
+        <v>5829.5225</v>
+      </c>
+      <c r="M30">
+        <v>1.1678999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4.7</v>
+      </c>
+      <c r="B31">
+        <v>1870.9096</v>
+      </c>
+      <c r="C31">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="D31">
+        <v>2629.0059999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="F31">
+        <v>3427.6457999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="H31">
+        <v>4233.0095000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="J31">
+        <v>5039.6926999999996</v>
+      </c>
+      <c r="K31">
+        <v>1.0436000000000001</v>
+      </c>
+      <c r="L31">
+        <v>5826.2250999999997</v>
+      </c>
+      <c r="M31">
+        <v>1.1635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.8</v>
+      </c>
+      <c r="B32">
+        <v>1862.9736</v>
+      </c>
+      <c r="C32">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="D32">
+        <v>2621.2772</v>
+      </c>
+      <c r="E32">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="F32">
+        <v>3420.7474999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="H32">
+        <v>4227.6061</v>
+      </c>
+      <c r="I32">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J32">
+        <v>5036.2422999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.0388999999999999</v>
+      </c>
+      <c r="L32">
+        <v>5823.0240999999996</v>
+      </c>
+      <c r="M32">
+        <v>1.1619999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B33">
+        <v>1855.0026</v>
+      </c>
+      <c r="C33">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="D33">
+        <v>2613.5048999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="F33">
+        <v>3413.8004999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.78590000000000004</v>
+      </c>
+      <c r="H33">
+        <v>4222.1341000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="J33">
+        <v>5032.6088</v>
+      </c>
+      <c r="K33">
+        <v>1.0347999999999999</v>
+      </c>
+      <c r="L33">
+        <v>5819.7731999999996</v>
+      </c>
+      <c r="M33">
+        <v>1.1576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>1847.0201999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="D34">
+        <v>2605.6821</v>
+      </c>
+      <c r="E34">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F34">
+        <v>3406.7579000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.7823</v>
+      </c>
+      <c r="H34">
+        <v>4216.6544000000004</v>
+      </c>
+      <c r="I34">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="J34">
+        <v>5028.8366999999998</v>
+      </c>
+      <c r="K34">
+        <v>1.0316000000000001</v>
+      </c>
+      <c r="L34">
+        <v>5816.5540000000001</v>
+      </c>
+      <c r="M34">
+        <v>1.1532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B35">
+        <v>1838.9792</v>
+      </c>
+      <c r="C35">
+        <v>0.5222</v>
+      </c>
+      <c r="D35">
+        <v>2597.817</v>
+      </c>
+      <c r="E35">
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="F35">
+        <v>3399.6837999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="H35">
+        <v>4211.0951999999997</v>
+      </c>
+      <c r="I35">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="J35">
+        <v>5024.9898999999996</v>
+      </c>
+      <c r="K35">
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="L35">
+        <v>5813.4233999999997</v>
+      </c>
+      <c r="M35">
+        <v>1.1492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5.2</v>
+      </c>
+      <c r="B36">
+        <v>1830.9105</v>
+      </c>
+      <c r="C36">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="D36">
+        <v>2589.9054999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="F36">
+        <v>3392.5607</v>
+      </c>
+      <c r="G36">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="H36">
+        <v>4205.5415999999996</v>
+      </c>
+      <c r="I36">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="J36">
+        <v>5020.9858000000004</v>
+      </c>
+      <c r="K36">
+        <v>1.0253000000000001</v>
+      </c>
+      <c r="L36">
+        <v>5810.2691000000004</v>
+      </c>
+      <c r="M36">
+        <v>1.1474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5.3</v>
+      </c>
+      <c r="B37">
+        <v>1822.796</v>
+      </c>
+      <c r="C37">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="D37">
+        <v>2581.9484000000002</v>
+      </c>
+      <c r="E37">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="F37">
+        <v>3385.3409000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H37">
+        <v>4199.9170999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="J37">
+        <v>5016.8620000000001</v>
+      </c>
+      <c r="K37">
+        <v>1.0216000000000001</v>
+      </c>
+      <c r="L37">
+        <v>5807.1133</v>
+      </c>
+      <c r="M37">
+        <v>1.1431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5.4</v>
+      </c>
+      <c r="B38">
+        <v>1814.6787999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="D38">
+        <v>2573.9517000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="F38">
+        <v>3378.0927999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="H38">
+        <v>4194.2385000000004</v>
+      </c>
+      <c r="I38">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="J38">
+        <v>5012.5762999999997</v>
+      </c>
+      <c r="K38">
+        <v>1.0198</v>
+      </c>
+      <c r="L38">
+        <v>5803.9866000000002</v>
+      </c>
+      <c r="M38">
+        <v>1.1388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5.5</v>
+      </c>
+      <c r="B39">
+        <v>1806.4957999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="D39">
+        <v>2565.9063999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.63990000000000002</v>
+      </c>
+      <c r="F39">
+        <v>3370.7961</v>
+      </c>
+      <c r="G39">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="H39">
+        <v>4188.4427999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="J39">
+        <v>5008.1844000000001</v>
+      </c>
+      <c r="K39">
+        <v>1.0158</v>
+      </c>
+      <c r="L39">
+        <v>5800.9197999999997</v>
+      </c>
+      <c r="M39">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.6</v>
+      </c>
+      <c r="B40">
+        <v>1798.2856999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="D40">
+        <v>2557.7914000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="F40">
+        <v>3363.4056999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="H40">
+        <v>4182.6140999999998</v>
+      </c>
+      <c r="I40">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J40">
+        <v>5003.6400000000003</v>
+      </c>
+      <c r="K40">
+        <v>1.0112000000000001</v>
+      </c>
+      <c r="L40">
+        <v>5797.8225000000002</v>
+      </c>
+      <c r="M40">
+        <v>1.1331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5.7</v>
+      </c>
+      <c r="B41">
+        <v>1790.0374999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="D41">
+        <v>2549.6617000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="F41">
+        <v>3355.9877999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H41">
+        <v>4176.6549999999997</v>
+      </c>
+      <c r="I41">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="J41">
+        <v>4998.8624</v>
+      </c>
+      <c r="K41">
+        <v>1.0083</v>
+      </c>
+      <c r="L41">
+        <v>5794.7116999999998</v>
+      </c>
+      <c r="M41">
+        <v>1.1289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.8</v>
+      </c>
+      <c r="B42">
+        <v>1781.7782999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.502</v>
+      </c>
+      <c r="D42">
+        <v>2541.4811</v>
+      </c>
+      <c r="E42">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F42">
+        <v>3348.5221000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="H42">
+        <v>4170.6390000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="J42">
+        <v>4993.9022999999997</v>
+      </c>
+      <c r="K42">
+        <v>1.0064</v>
+      </c>
+      <c r="L42">
+        <v>5791.6045000000004</v>
+      </c>
+      <c r="M42">
+        <v>1.1246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5.9</v>
+      </c>
+      <c r="B43">
+        <v>1773.4621999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.4995</v>
+      </c>
+      <c r="D43">
+        <v>2533.2601</v>
+      </c>
+      <c r="E43">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="F43">
+        <v>3340.9614000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="H43">
+        <v>4164.5255999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.88</v>
+      </c>
+      <c r="J43">
+        <v>4988.8720999999996</v>
+      </c>
+      <c r="K43">
+        <v>1.0018</v>
+      </c>
+      <c r="L43">
+        <v>5788.5514000000003</v>
+      </c>
+      <c r="M43">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>1765.1112000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="D44">
+        <v>2524.9951000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="F44">
+        <v>3333.3784999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="H44">
+        <v>4158.3620000000001</v>
+      </c>
+      <c r="I44">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="J44">
+        <v>4983.5595999999996</v>
+      </c>
+      <c r="K44">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="L44">
+        <v>5785.4596000000001</v>
+      </c>
+      <c r="M44">
+        <v>1.1191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6.1</v>
+      </c>
+      <c r="B45">
+        <v>1756.7318</v>
+      </c>
+      <c r="C45">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D45">
+        <v>2516.6864999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="F45">
+        <v>3325.7456000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="H45">
+        <v>4152.0810000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.873</v>
+      </c>
+      <c r="J45">
+        <v>4978.1760999999997</v>
+      </c>
+      <c r="K45">
+        <v>0.995</v>
+      </c>
+      <c r="L45">
+        <v>5782.3375999999998</v>
+      </c>
+      <c r="M45">
+        <v>1.1149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6.2</v>
+      </c>
+      <c r="B46">
+        <v>1748.3300999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.49</v>
+      </c>
+      <c r="D46">
+        <v>2508.3382000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="F46">
+        <v>3318.0194000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="H46">
+        <v>4145.7605999999996</v>
+      </c>
+      <c r="I46">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="J46">
+        <v>4972.8010000000004</v>
+      </c>
+      <c r="K46">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="L46">
+        <v>5779.2070000000003</v>
+      </c>
+      <c r="M46">
+        <v>1.1108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6.3</v>
+      </c>
+      <c r="B47">
+        <v>1739.8833</v>
+      </c>
+      <c r="C47">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="D47">
+        <v>2499.9398999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="F47">
+        <v>3310.2707999999998</v>
+      </c>
+      <c r="G47">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="H47">
+        <v>4139.3297000000002</v>
+      </c>
+      <c r="I47">
+        <v>0.8669</v>
+      </c>
+      <c r="J47">
+        <v>4967.3319000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="L47">
+        <v>5776.1121999999996</v>
+      </c>
+      <c r="M47">
+        <v>1.1073999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6.4</v>
+      </c>
+      <c r="B48">
+        <v>1731.3915999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="D48">
+        <v>2491.5007999999998</v>
+      </c>
+      <c r="E48">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="F48">
+        <v>3302.4708999999998</v>
+      </c>
+      <c r="G48">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="H48">
+        <v>4132.8561</v>
+      </c>
+      <c r="I48">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="J48">
+        <v>4961.8198000000002</v>
+      </c>
+      <c r="K48">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="L48">
+        <v>5772.9422999999997</v>
+      </c>
+      <c r="M48">
+        <v>1.1053999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6.5</v>
+      </c>
+      <c r="B49">
+        <v>1722.8742999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="D49">
+        <v>2482.9872</v>
+      </c>
+      <c r="E49">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F49">
+        <v>3294.5816</v>
+      </c>
+      <c r="G49">
+        <v>0.73609999999999998</v>
+      </c>
+      <c r="H49">
+        <v>4126.2687999999998</v>
+      </c>
+      <c r="I49">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="J49">
+        <v>4956.3083999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="L49">
+        <v>5769.7503999999999</v>
+      </c>
+      <c r="M49">
+        <v>1.1012999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6.6</v>
+      </c>
+      <c r="B50">
+        <v>1714.3458000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.4788</v>
+      </c>
+      <c r="D50">
+        <v>2474.4557</v>
+      </c>
+      <c r="E50">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="F50">
+        <v>3286.6714000000002</v>
+      </c>
+      <c r="G50">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="H50">
+        <v>4119.6571999999996</v>
+      </c>
+      <c r="I50">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="J50">
+        <v>4950.7097000000003</v>
+      </c>
+      <c r="K50">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="L50">
+        <v>5766.5371999999998</v>
+      </c>
+      <c r="M50">
+        <v>1.0972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6.7</v>
+      </c>
+      <c r="B51">
+        <v>1705.7606000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D51">
+        <v>2465.8847000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="F51">
+        <v>3278.67</v>
+      </c>
+      <c r="G51">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H51">
+        <v>4112.9243999999999</v>
+      </c>
+      <c r="I51">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="J51">
+        <v>4945.0690000000004</v>
+      </c>
+      <c r="K51">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="L51">
+        <v>5763.3343999999997</v>
+      </c>
+      <c r="M51">
+        <v>1.0939000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6.8</v>
+      </c>
+      <c r="B52">
+        <v>1697.1396</v>
+      </c>
+      <c r="C52">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="D52">
+        <v>2457.2719999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="F52">
+        <v>3270.6536000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="H52">
+        <v>4106.1139000000003</v>
+      </c>
+      <c r="I52">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="J52">
+        <v>4939.4279999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="L52">
+        <v>5760.0492999999997</v>
+      </c>
+      <c r="M52">
+        <v>1.0919000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>6.9</v>
+      </c>
+      <c r="B53">
+        <v>1688.5127</v>
+      </c>
+      <c r="C53">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="D53">
+        <v>2448.6154999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F53">
+        <v>3262.5803999999998</v>
+      </c>
+      <c r="G53">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="H53">
+        <v>4099.2844999999998</v>
+      </c>
+      <c r="I53">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="J53">
+        <v>4933.6974</v>
+      </c>
+      <c r="K53">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="L53">
+        <v>5756.7362999999996</v>
+      </c>
+      <c r="M53">
+        <v>1.0879000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>1679.8249000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="D54">
+        <v>2439.9198999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="F54">
+        <v>3254.4146999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="H54">
+        <v>4092.3321999999998</v>
+      </c>
+      <c r="I54">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="J54">
+        <v>4927.9236000000001</v>
+      </c>
+      <c r="K54">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="L54">
+        <v>5753.3818000000001</v>
+      </c>
+      <c r="M54">
+        <v>1.0839000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7.1</v>
+      </c>
+      <c r="B55">
+        <v>1671.1022</v>
+      </c>
+      <c r="C55">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="D55">
+        <v>2431.1732999999999</v>
+      </c>
+      <c r="E55">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="F55">
+        <v>3246.2366000000002</v>
+      </c>
+      <c r="G55">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="H55">
+        <v>4085.3546999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J55">
+        <v>4922.1041999999998</v>
+      </c>
+      <c r="K55">
+        <v>0.9627</v>
+      </c>
+      <c r="L55">
+        <v>5749.9881999999998</v>
+      </c>
+      <c r="M55">
+        <v>1.0799000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7.2</v>
+      </c>
+      <c r="B56">
+        <v>1662.3525</v>
+      </c>
+      <c r="C56">
+        <v>0.4622</v>
+      </c>
+      <c r="D56">
+        <v>2422.3892000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.5897</v>
+      </c>
+      <c r="F56">
+        <v>3238.0075000000002</v>
+      </c>
+      <c r="G56">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="H56">
+        <v>4078.2588999999998</v>
+      </c>
+      <c r="I56">
+        <v>0.84</v>
+      </c>
+      <c r="J56">
+        <v>4916.2929999999997</v>
+      </c>
+      <c r="K56">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="L56">
+        <v>5746.5627000000004</v>
+      </c>
+      <c r="M56">
+        <v>1.0774999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7.3</v>
+      </c>
+      <c r="B57">
+        <v>1653.5871999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="D57">
+        <v>2413.5246999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F57">
+        <v>3229.6756</v>
+      </c>
+      <c r="G57">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H57">
+        <v>4071.1484999999998</v>
+      </c>
+      <c r="I57">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="J57">
+        <v>4910.3868000000002</v>
+      </c>
+      <c r="K57">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="L57">
+        <v>5743.1315000000004</v>
+      </c>
+      <c r="M57">
+        <v>1.0747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>7.4</v>
+      </c>
+      <c r="B58">
+        <v>1644.7714000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="D58">
+        <v>2404.6489999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="F58">
+        <v>3221.3397</v>
+      </c>
+      <c r="G58">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="H58">
+        <v>4063.9168</v>
+      </c>
+      <c r="I58">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="J58">
+        <v>4904.4368999999997</v>
+      </c>
+      <c r="K58">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="L58">
+        <v>5739.5888999999997</v>
+      </c>
+      <c r="M58">
+        <v>1.0708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7.5000000000000098</v>
+      </c>
+      <c r="B59">
+        <v>1635.9128000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="D59">
+        <v>2395.7361999999998</v>
+      </c>
+      <c r="E59">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F59">
+        <v>3212.9063999999998</v>
+      </c>
+      <c r="G59">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="H59">
+        <v>4056.6134000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="J59">
+        <v>4898.4975999999997</v>
+      </c>
+      <c r="K59">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="L59">
+        <v>5735.9674000000005</v>
+      </c>
+      <c r="M59">
+        <v>1.0669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>7.6</v>
+      </c>
+      <c r="B60">
+        <v>1627.0641000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="D60">
+        <v>2386.7786000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="F60">
+        <v>3204.4612000000002</v>
+      </c>
+      <c r="G60">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H60">
+        <v>4049.2959999999998</v>
+      </c>
+      <c r="I60">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="J60">
+        <v>4892.4593999999997</v>
+      </c>
+      <c r="K60">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="L60">
+        <v>5732.2861999999996</v>
+      </c>
+      <c r="M60">
+        <v>1.0646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7.7</v>
+      </c>
+      <c r="B61">
+        <v>1618.1395</v>
+      </c>
+      <c r="C61">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="D61">
+        <v>2377.7799</v>
+      </c>
+      <c r="E61">
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="F61">
+        <v>3195.9656</v>
+      </c>
+      <c r="G61">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="H61">
+        <v>4041.8551000000002</v>
+      </c>
+      <c r="I61">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="J61">
+        <v>4886.3796000000002</v>
+      </c>
+      <c r="K61">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="L61">
+        <v>5728.5375999999997</v>
+      </c>
+      <c r="M61">
+        <v>1.0624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>7.8000000000000096</v>
+      </c>
+      <c r="B62">
+        <v>1609.2243000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.4451</v>
+      </c>
+      <c r="D62">
+        <v>2368.7435</v>
+      </c>
+      <c r="E62">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="F62">
+        <v>3187.3748000000001</v>
+      </c>
+      <c r="G62">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="H62">
+        <v>4034.4032999999999</v>
+      </c>
+      <c r="I62">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="J62">
+        <v>4880.2628999999997</v>
+      </c>
+      <c r="K62">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="L62">
+        <v>5724.8098</v>
+      </c>
+      <c r="M62">
+        <v>1.0579000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7.9000000000000101</v>
+      </c>
+      <c r="B63">
+        <v>1600.2337</v>
+      </c>
+      <c r="C63">
+        <v>0.4415</v>
+      </c>
+      <c r="D63">
+        <v>2359.6565999999998</v>
+      </c>
+      <c r="E63">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="F63">
+        <v>3178.7746999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="H63">
+        <v>4026.8276999999998</v>
+      </c>
+      <c r="I63">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="J63">
+        <v>4874.1517000000003</v>
+      </c>
+      <c r="K63">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="L63">
+        <v>5720.9159</v>
+      </c>
+      <c r="M63">
+        <v>1.0541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8.0000000000000107</v>
+      </c>
+      <c r="B64">
+        <v>1591.2165</v>
+      </c>
+      <c r="C64">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="D64">
+        <v>2350.5335</v>
+      </c>
+      <c r="E64">
+        <v>0.5665</v>
+      </c>
+      <c r="F64">
+        <v>3170.0729999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="H64">
+        <v>4019.2480999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="J64">
+        <v>4867.9439000000002</v>
+      </c>
+      <c r="K64">
+        <v>0.9345</v>
+      </c>
+      <c r="L64">
+        <v>5716.9157999999998</v>
+      </c>
+      <c r="M64">
+        <v>1.0518000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8.1</v>
+      </c>
+      <c r="B65">
+        <v>1582.1946</v>
+      </c>
+      <c r="C65">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="D65">
+        <v>2341.366</v>
+      </c>
+      <c r="E65">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="F65">
+        <v>3161.3726999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H65">
+        <v>4011.5383999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="J65">
+        <v>4861.6858000000002</v>
+      </c>
+      <c r="K65">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="L65">
+        <v>5712.8275000000003</v>
+      </c>
+      <c r="M65">
+        <v>1.0497000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8.2000000000000099</v>
+      </c>
+      <c r="B66">
+        <v>1573.1105</v>
+      </c>
+      <c r="C66">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="D66">
+        <v>2332.1549</v>
+      </c>
+      <c r="E66">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="F66">
+        <v>3152.6172000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="H66">
+        <v>4003.7691</v>
+      </c>
+      <c r="I66">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J66">
+        <v>4855.4552999999996</v>
+      </c>
+      <c r="K66">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="L66">
+        <v>5708.6592000000001</v>
+      </c>
+      <c r="M66">
+        <v>1.0458000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8.3000000000000096</v>
+      </c>
+      <c r="B67">
+        <v>1563.9916000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="D67">
+        <v>2322.8604999999998</v>
+      </c>
+      <c r="E67">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="F67">
+        <v>3143.7584000000002</v>
+      </c>
+      <c r="G67">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="H67">
+        <v>3995.9879999999998</v>
+      </c>
+      <c r="I67">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="J67">
+        <v>4849.1126999999997</v>
+      </c>
+      <c r="K67">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="L67">
+        <v>5704.3962000000001</v>
+      </c>
+      <c r="M67">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8.4000000000000092</v>
+      </c>
+      <c r="B68">
+        <v>1554.8787</v>
+      </c>
+      <c r="C68">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="D68">
+        <v>2313.5641999999998</v>
+      </c>
+      <c r="E68">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="F68">
+        <v>3134.9014000000002</v>
+      </c>
+      <c r="G68">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="H68">
+        <v>3988.0875999999998</v>
+      </c>
+      <c r="I68">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="J68">
+        <v>4842.7313999999997</v>
+      </c>
+      <c r="K68">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="L68">
+        <v>5700.0950000000003</v>
+      </c>
+      <c r="M68">
+        <v>1.0391999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8.5000000000000107</v>
+      </c>
+      <c r="B69">
+        <v>1545.6922</v>
+      </c>
+      <c r="C69">
+        <v>0.4249</v>
+      </c>
+      <c r="D69">
+        <v>2304.2258999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="F69">
+        <v>3125.9935999999998</v>
+      </c>
+      <c r="G69">
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="H69">
+        <v>3980.1761000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="J69">
+        <v>4836.3064999999997</v>
+      </c>
+      <c r="K69">
+        <v>0.92</v>
+      </c>
+      <c r="L69">
+        <v>5695.6075000000001</v>
+      </c>
+      <c r="M69">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8.6000000000000103</v>
+      </c>
+      <c r="B70">
+        <v>1536.5120999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D70">
+        <v>2294.8519999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="F70">
+        <v>3116.9778000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="H70">
+        <v>3972.1435000000001</v>
+      </c>
+      <c r="I70">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="J70">
+        <v>4829.8981999999996</v>
+      </c>
+      <c r="K70">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="L70">
+        <v>5691.0128999999997</v>
+      </c>
+      <c r="M70">
+        <v>1.0333000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8.7000000000000099</v>
+      </c>
+      <c r="B71">
+        <v>1527.2587000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="D71">
+        <v>2285.4249</v>
+      </c>
+      <c r="E71">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="F71">
+        <v>3107.9666999999999</v>
+      </c>
+      <c r="G71">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="H71">
+        <v>3964.0473999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="J71">
+        <v>4823.3854000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.9123</v>
+      </c>
+      <c r="L71">
+        <v>5686.2793000000001</v>
+      </c>
+      <c r="M71">
+        <v>1.0295000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>8.8000000000000096</v>
+      </c>
+      <c r="B72">
+        <v>1518.0112999999999</v>
+      </c>
+      <c r="C72">
+        <v>0.4163</v>
+      </c>
+      <c r="D72">
+        <v>2275.9639999999999</v>
+      </c>
+      <c r="E72">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="F72">
+        <v>3098.8496</v>
+      </c>
+      <c r="G72">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="H72">
+        <v>3955.9459000000002</v>
+      </c>
+      <c r="I72">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="J72">
+        <v>4816.8266000000003</v>
+      </c>
+      <c r="K72">
+        <v>0.91</v>
+      </c>
+      <c r="L72">
+        <v>5681.4188999999997</v>
+      </c>
+      <c r="M72">
+        <v>1.0258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8.9000000000000092</v>
+      </c>
+      <c r="B73">
+        <v>1508.6929</v>
+      </c>
+      <c r="C73">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="D73">
+        <v>2266.4587999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F73">
+        <v>3089.7334999999998</v>
+      </c>
+      <c r="G73">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="H73">
+        <v>3947.7206000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J73">
+        <v>4810.2259999999997</v>
+      </c>
+      <c r="K73">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="L73">
+        <v>5676.4098000000004</v>
+      </c>
+      <c r="M73">
+        <v>1.0237000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>9.0000000000000107</v>
+      </c>
+      <c r="B74">
+        <v>1499.3832</v>
+      </c>
+      <c r="C74">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="D74">
+        <v>2256.9101000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="F74">
+        <v>3080.5706</v>
+      </c>
+      <c r="G74">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="H74">
+        <v>3939.4933999999998</v>
+      </c>
+      <c r="I74">
+        <v>0.7853</v>
+      </c>
+      <c r="J74">
+        <v>4803.6481999999996</v>
+      </c>
+      <c r="K74">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="L74">
+        <v>5671.2676000000001</v>
+      </c>
+      <c r="M74">
+        <v>1.0214000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>9.1000000000000103</v>
+      </c>
+      <c r="B75">
+        <v>1489.9960000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D75">
+        <v>2247.3236999999999</v>
+      </c>
+      <c r="E75">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="F75">
+        <v>3071.2939000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="H75">
+        <v>3931.1405</v>
+      </c>
+      <c r="I75">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="J75">
+        <v>4796.9593000000004</v>
+      </c>
+      <c r="K75">
+        <v>0.9002</v>
+      </c>
+      <c r="L75">
+        <v>5666.1043</v>
+      </c>
+      <c r="M75">
+        <v>1.0170999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>9.2000000000000099</v>
+      </c>
+      <c r="B76">
+        <v>1480.6192000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="D76">
+        <v>2237.6871999999998</v>
+      </c>
+      <c r="E76">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="F76">
+        <v>3062.0250999999998</v>
+      </c>
+      <c r="G76">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="H76">
+        <v>3922.7211000000002</v>
+      </c>
+      <c r="I76">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="J76">
+        <v>4790.2290000000003</v>
+      </c>
+      <c r="K76">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L76">
+        <v>5660.6823999999997</v>
+      </c>
+      <c r="M76">
+        <v>1.0134000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9.3000000000000096</v>
+      </c>
+      <c r="B77">
+        <v>1471.1632</v>
+      </c>
+      <c r="C77">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="D77">
+        <v>2228.0142999999998</v>
+      </c>
+      <c r="E77">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="F77">
+        <v>3052.7069999999999</v>
+      </c>
+      <c r="G77">
+        <v>0.6542</v>
+      </c>
+      <c r="H77">
+        <v>3914.3045999999999</v>
+      </c>
+      <c r="I77">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="J77">
+        <v>4783.4075000000003</v>
+      </c>
+      <c r="K77">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="L77">
+        <v>5655.0645000000004</v>
+      </c>
+      <c r="M77">
+        <v>1.0113000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>9.4000000000000092</v>
+      </c>
+      <c r="B78">
+        <v>1461.7211</v>
+      </c>
+      <c r="C78">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="D78">
+        <v>2218.2972</v>
+      </c>
+      <c r="E78">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="F78">
+        <v>3043.2764999999999</v>
+      </c>
+      <c r="G78">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="H78">
+        <v>3905.7649000000001</v>
+      </c>
+      <c r="I78">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="J78">
+        <v>4776.5785999999998</v>
+      </c>
+      <c r="K78">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="L78">
+        <v>5649.2736999999997</v>
+      </c>
+      <c r="M78">
+        <v>1.0089999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>9.5000000000000107</v>
+      </c>
+      <c r="B79">
+        <v>1452.1993</v>
+      </c>
+      <c r="C79">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="D79">
+        <v>2208.5351000000001</v>
+      </c>
+      <c r="E79">
+        <v>0.5232</v>
+      </c>
+      <c r="F79">
+        <v>3033.8512999999998</v>
+      </c>
+      <c r="G79">
+        <v>0.6482</v>
+      </c>
+      <c r="H79">
+        <v>3897.2240999999999</v>
+      </c>
+      <c r="I79">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="J79">
+        <v>4769.5798999999997</v>
+      </c>
+      <c r="K79">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="L79">
+        <v>5643.3468999999996</v>
+      </c>
+      <c r="M79">
+        <v>1.0054000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9.6000000000000103</v>
+      </c>
+      <c r="B80">
+        <v>1442.6905999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="D80">
+        <v>2198.7370999999998</v>
+      </c>
+      <c r="E80">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="F80">
+        <v>3024.3152</v>
+      </c>
+      <c r="G80">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="H80">
+        <v>3888.5560999999998</v>
+      </c>
+      <c r="I80">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="J80">
+        <v>4762.491</v>
+      </c>
+      <c r="K80">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="L80">
+        <v>5637.2314999999999</v>
+      </c>
+      <c r="M80">
+        <v>1.0017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>9.7000000000000099</v>
+      </c>
+      <c r="B81">
+        <v>1433.1445000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="D81">
+        <v>2188.8872999999999</v>
+      </c>
+      <c r="E81">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="F81">
+        <v>3014.7950999999998</v>
+      </c>
+      <c r="G81">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="H81">
+        <v>3879.8948999999998</v>
+      </c>
+      <c r="I81">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="J81">
+        <v>4755.32</v>
+      </c>
+      <c r="K81">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="L81">
+        <v>5630.9160000000002</v>
+      </c>
+      <c r="M81">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>9.8000000000000096</v>
+      </c>
+      <c r="B82">
+        <v>1423.5206000000001</v>
+      </c>
+      <c r="C82">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="D82">
+        <v>2179.0007999999998</v>
+      </c>
+      <c r="E82">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="F82">
+        <v>3005.2170000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="H82">
+        <v>3871.0990999999999</v>
+      </c>
+      <c r="I82">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="J82">
+        <v>4748.1450000000004</v>
+      </c>
+      <c r="K82">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="L82">
+        <v>5624.5967000000001</v>
+      </c>
+      <c r="M82">
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>9.9000000000000092</v>
+      </c>
+      <c r="B83">
+        <v>1413.9095</v>
+      </c>
+      <c r="C83">
+        <v>0.38529999999999998</v>
+      </c>
+      <c r="D83">
+        <v>2169.0691000000002</v>
+      </c>
+      <c r="E83">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="F83">
+        <v>2995.5191</v>
+      </c>
+      <c r="G83">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="H83">
+        <v>3862.2399</v>
+      </c>
+      <c r="I83">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J83">
+        <v>4740.8071</v>
+      </c>
+      <c r="K83">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="L83">
+        <v>5618.1529</v>
+      </c>
+      <c r="M83">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1404.2714000000001</v>
+      </c>
+      <c r="C84">
+        <v>0.3831</v>
+      </c>
+      <c r="D84">
+        <v>2159.0938999999998</v>
+      </c>
+      <c r="E84">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="F84">
+        <v>2985.8436000000002</v>
+      </c>
+      <c r="G84">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="H84">
+        <v>3853.3982999999998</v>
+      </c>
+      <c r="I84">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="J84">
+        <v>4733.3807999999999</v>
+      </c>
+      <c r="K84">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="L84">
+        <v>5611.6571000000004</v>
+      </c>
+      <c r="M84">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_and_analysis/Burn Time.xlsx
+++ b/data_and_analysis/Burn Time.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DarkMatter_Jr\data_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747E168-79A4-4FD7-BEAA-D807654687FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E749D3-E8A9-435C-9A47-310D38D22E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
   </bookViews>
   <sheets>
-    <sheet name="Various Pressure" sheetId="1" r:id="rId1"/>
-    <sheet name="Various Efficiency" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Various Pressure" sheetId="1" r:id="rId2"/>
+    <sheet name="Various Efficiency" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Burn Time (s)</t>
   </si>
@@ -51,6 +52,18 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Burn Time(s)</t>
+  </si>
+  <si>
+    <t>Thrust (N)</t>
+  </si>
+  <si>
+    <t>Max_V (Ma)</t>
+  </si>
+  <si>
+    <t>Gap (mm)</t>
   </si>
 </sst>
 </file>
@@ -110,6 +123,1386 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of Various Burn Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust (N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10787.874599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7191.9164000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5393.9372999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4315.1498000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3595.9582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3082.2498999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2696.9686000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2397.3054999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2157.5749000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD1E-4183-A533-C8B8BD70ABBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apogee (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5173.1553000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5150.5672000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5127.1477999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5099.2833000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5061.9521000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5010.8081000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4953.7766000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4892.2887000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4826.1427999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD1E-4183-A533-C8B8BD70ABBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2077488575"/>
+        <c:axId val="2077488991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2077488575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077488991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2077488991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Thrust (N) &amp; Apogee (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077488575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1651227034120735"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.79165507436570426"/>
+          <c:h val="0.82936172751133375"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max_V (Ma)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1196999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0478000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0146999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88929999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0069-43A3-98F3-693A2BAA0F81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2077502719"/>
+        <c:axId val="2077503135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2077502719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077503135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2077503135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Max_V (Ma)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077502719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16390048118985126"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.79287729658792649"/>
+          <c:h val="0.7731592269827483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gap (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7572-4DEA-830A-8638BE41FE87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074895263"/>
+        <c:axId val="2074908575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074895263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Burn Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074908575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2074908575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Gap Size (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074895263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2105,7 +3498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5854,8 +7247,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5882,8 +7395,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5963,11 +7476,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5978,11 +7486,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5994,7 +7497,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6014,9 +7517,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6029,10 +7529,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6072,22 +7572,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6192,8 +7693,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6325,19 +7826,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6351,6 +7853,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6886,7 +8399,1668 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EFCEAC-0614-A718-94AD-5EFB07C479BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BE5114-82D6-F09D-2F9F-2CB3C81EFB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9435CDFD-28A9-FCA5-E70B-F78C27FFEB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6927,7 +10101,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7264,10 +10438,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D998D6-1215-4CC4-B39E-D0E0BF906CFC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10787.874599999999</v>
+      </c>
+      <c r="C2">
+        <v>5173.1553000000004</v>
+      </c>
+      <c r="D2">
+        <v>1.1600999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>7191.9164000000001</v>
+      </c>
+      <c r="C3">
+        <v>5150.5672000000004</v>
+      </c>
+      <c r="D3">
+        <v>1.1196999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5393.9372999999996</v>
+      </c>
+      <c r="C4">
+        <v>5127.1477999999997</v>
+      </c>
+      <c r="D4">
+        <v>1.0827</v>
+      </c>
+      <c r="E4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4315.1498000000001</v>
+      </c>
+      <c r="C5">
+        <v>5099.2833000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.0478000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3595.9582</v>
+      </c>
+      <c r="C6">
+        <v>5061.9521000000004</v>
+      </c>
+      <c r="D6">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3082.2498999999998</v>
+      </c>
+      <c r="C7">
+        <v>5010.8081000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2696.9686000000002</v>
+      </c>
+      <c r="C8">
+        <v>4953.7766000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2397.3054999999999</v>
+      </c>
+      <c r="C9">
+        <v>4892.2887000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2157.5749000000001</v>
+      </c>
+      <c r="C10">
+        <v>4826.1427999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07EAD01-E0CD-4E4E-85C8-5902CD2E2223}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -9706,7 +13066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A442CC-AFCB-402B-8B27-D041FFD78507}">
   <dimension ref="A1:M84"/>
   <sheetViews>

--- a/data_and_analysis/Burn Time.xlsx
+++ b/data_and_analysis/Burn Time.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DarkMatter_Jr\data_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E749D3-E8A9-435C-9A47-310D38D22E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977615A-B886-448F-B8B6-E3F88CE41A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{15F2A403-7F56-472B-9DD8-FD803B0BA599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Various Pressure" sheetId="1" r:id="rId2"/>
-    <sheet name="Various Efficiency" sheetId="2" r:id="rId3"/>
+    <sheet name="P=300" sheetId="4" r:id="rId2"/>
+    <sheet name="Various Pressure" sheetId="1" r:id="rId3"/>
+    <sheet name="Various Efficiency" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Burn Time (s)</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Gap (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* with 90% efficiency </t>
+  </si>
+  <si>
+    <t>Speed (Ma)</t>
   </si>
 </sst>
 </file>
@@ -10441,7 +10448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D998D6-1215-4CC4-B39E-D0E0BF906CFC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -10624,6 +10631,278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D14319F-4F05-4B40-BC9E-7AB36936E043}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5303.8959999999997</v>
+      </c>
+      <c r="C2">
+        <v>4662.5655999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4.5</v>
+      </c>
+      <c r="B3">
+        <v>4714.5742</v>
+      </c>
+      <c r="C3">
+        <v>4636.1157999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.97850000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4243.1167999999998</v>
+      </c>
+      <c r="C4">
+        <v>4608.643</v>
+      </c>
+      <c r="D4">
+        <v>0.9607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5.5</v>
+      </c>
+      <c r="B5">
+        <v>3857.3789000000002</v>
+      </c>
+      <c r="C5">
+        <v>4580.0789000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.94540000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3535.9306999999999</v>
+      </c>
+      <c r="C6">
+        <v>4550.4885000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.92810000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6.5</v>
+      </c>
+      <c r="B7">
+        <v>3263.9360000000001</v>
+      </c>
+      <c r="C7">
+        <v>4519.8732</v>
+      </c>
+      <c r="D7">
+        <v>0.91390000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3030.7977000000001</v>
+      </c>
+      <c r="C8">
+        <v>4488.2357000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.89710000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7.5</v>
+      </c>
+      <c r="B9">
+        <v>2828.7444999999998</v>
+      </c>
+      <c r="C9">
+        <v>4454.8879999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.88180000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2651.9479999999999</v>
+      </c>
+      <c r="C10">
+        <v>4419.5333000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8.5</v>
+      </c>
+      <c r="B11">
+        <v>2495.951</v>
+      </c>
+      <c r="C11">
+        <v>4382.2028</v>
+      </c>
+      <c r="D11">
+        <v>0.85140000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2357.2871</v>
+      </c>
+      <c r="C12">
+        <v>4343.1090000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.8367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9.5</v>
+      </c>
+      <c r="B13">
+        <v>2233.2194</v>
+      </c>
+      <c r="C13">
+        <v>4302.2656999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.82220000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2121.5583999999999</v>
+      </c>
+      <c r="C14">
+        <v>4259.7138999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.80659999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10.5</v>
+      </c>
+      <c r="B15">
+        <v>2020.5318</v>
+      </c>
+      <c r="C15">
+        <v>4215.4072999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.79279999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1928.6894</v>
+      </c>
+      <c r="C16">
+        <v>4169.5352000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.77859999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11.5</v>
+      </c>
+      <c r="B17">
+        <v>1844.8334</v>
+      </c>
+      <c r="C17">
+        <v>4122.0371999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.76359999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1767.9653000000001</v>
+      </c>
+      <c r="C18">
+        <v>4072.9259000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.75060000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07EAD01-E0CD-4E4E-85C8-5902CD2E2223}">
   <dimension ref="A1:I84"/>
   <sheetViews>
@@ -13066,7 +13345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A442CC-AFCB-402B-8B27-D041FFD78507}">
   <dimension ref="A1:M84"/>
   <sheetViews>
